--- a/biology/Médecine/Jean-Abraham_Auvity/Jean-Abraham_Auvity.xlsx
+++ b/biology/Médecine/Jean-Abraham_Auvity/Jean-Abraham_Auvity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Abraham Auvity, né à Troyes le 5 novembre 1754 et mort le 6 avril 1821 dans le 10e arrondissement de Paris[1], est un chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Abraham Auvity, né à Troyes le 5 novembre 1754 et mort le 6 avril 1821 dans le 10e arrondissement de Paris, est un chirurgien français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Abraham est le fils de François Auvity, maître tailleur d'habits, et de Elisabeth Michelin.
 Il fait ses études à Troyes, chez les oratoriens.
-Il se spécialise dans les maladies des nouveau-nés et est considéré comme le précurseur de la chirurgie pédiatrique en France. Il décrit le muguet buccal néonatal[2].
-En 1782, il devient chirurgien de l'hôpital des Enfants-Trouvés. En 1809, il est nommé à la Maternité où il exerce sous l'autorité de Jean-Louis Baudelocque. Plus tard, il est nommé membre de l'Académie royale de chirurgie et chirurgien du roi de Rome[2].
+Il se spécialise dans les maladies des nouveau-nés et est considéré comme le précurseur de la chirurgie pédiatrique en France. Il décrit le muguet buccal néonatal.
+En 1782, il devient chirurgien de l'hôpital des Enfants-Trouvés. En 1809, il est nommé à la Maternité où il exerce sous l'autorité de Jean-Louis Baudelocque. Plus tard, il est nommé membre de l'Académie royale de chirurgie et chirurgien du roi de Rome.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Second prix (médaille d'or de 400 livres) pour son mémoire, décerné par la Société royale de médecine, 28 août 1787
 chevalier de la Légion d'honneur le 29 décembre 1811.</t>
